--- a/data/Famitsu Hardware Sales 2020.xlsx
+++ b/data/Famitsu Hardware Sales 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonieskobar/Documents/Divers/Data Projects/Videogames/Japan/2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FEC9D5-315C-0B45-9BC9-EA32C38C88E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD54F36B-0ADF-3B4C-A777-822EFE462819}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="17080" firstSheet="46" activeTab="51" xr2:uid="{C29713EA-CFA8-9C40-A064-31623AEBCD1B}"/>
+    <workbookView xWindow="180" yWindow="0" windowWidth="28620" windowHeight="18000" firstSheet="49" activeTab="52" xr2:uid="{C29713EA-CFA8-9C40-A064-31623AEBCD1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1 Dec 30 - Jan 5 2020" sheetId="40" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="34">
   <si>
     <t>System</t>
   </si>
@@ -379,7 +379,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -440,7 +440,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -490,6 +489,123 @@
         <left style="thin">
           <color theme="0"/>
         </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
         <right/>
         <top style="thin">
           <color theme="0"/>
@@ -1117,123 +1233,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -32391,7 +32390,7 @@
 </file>
 
 <file path=xl/tables/table103.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="250" xr:uid="{2A49924F-78AF-6643-B169-BB9B06EAEFB5}" name="Table55456791564708453758187119187195199231243245251" displayName="Table55456791564708453758187119187195199231243245251" ref="A1:H8" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="250" xr:uid="{2A49924F-78AF-6643-B169-BB9B06EAEFB5}" name="Table55456791564708453758187119187195199231243245251" displayName="Table55456791564708453758187119187195199231243245251" ref="A1:H7" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{BE961CFC-3CBC-3A43-B094-02F915CC9B65}" name="System" dataDxfId="37"/>
     <tableColumn id="2" xr3:uid="{D60C3D76-CA62-A940-8928-D08E2BA037B4}" name="This Week" dataDxfId="36"/>
@@ -32409,60 +32408,60 @@
 </file>
 
 <file path=xl/tables/table104.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="251" xr:uid="{2EEF5900-BE61-5E47-88D6-003741BCCEAB}" name="Table5155578101665718558768288120188196200232244246252" displayName="Table5155578101665718558768288120188196200232244246252" ref="A10:H22" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:H22">
-    <sortCondition descending="1" ref="B15:B22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="251" xr:uid="{2EEF5900-BE61-5E47-88D6-003741BCCEAB}" name="Table5155578101665718558768288120188196200232244246252" displayName="Table5155578101665718558768288120188196200232244246252" ref="A9:H18" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:H18">
+    <sortCondition descending="1" ref="B9:B18"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{2D5D06FA-332C-B945-93F9-BEF05A6B2B44}" name="System" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{504771AE-0B0E-CB44-9258-20429C3A6750}" name="This Week" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{0F0C74ED-E979-F248-9F73-4CF821D409CF}" name="Last Week" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{B0772C6A-2891-7343-87CF-1D5DCD735895}" name="Percentage change" dataDxfId="24">
+    <tableColumn id="2" xr3:uid="{504771AE-0B0E-CB44-9258-20429C3A6750}" name="This Week" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{0F0C74ED-E979-F248-9F73-4CF821D409CF}" name="Last Week" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{B0772C6A-2891-7343-87CF-1D5DCD735895}" name="Percentage change" dataDxfId="1">
       <calculatedColumnFormula>(Table5155578101665718558768288120188196200232244246252[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D06D490D-6033-C145-9EA7-0EF62FB1745F}" name="Last Year" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{10607A3B-315E-4345-BDFA-9A2348ACF418}" name="Year to date" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{3F02CE3A-DBA0-2A42-9F88-01C733A22B8B}" name="Year to date 2019" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{17A166DB-6209-1D44-BFEF-F7F83B3228F5}" name="Lifetime" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{D06D490D-6033-C145-9EA7-0EF62FB1745F}" name="Last Year" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{10607A3B-315E-4345-BDFA-9A2348ACF418}" name="Year to date" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{3F02CE3A-DBA0-2A42-9F88-01C733A22B8B}" name="Year to date 2019" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{17A166DB-6209-1D44-BFEF-F7F83B3228F5}" name="Lifetime" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table105.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="252" xr:uid="{A3F3BDCF-3D76-6241-A6A1-52A1D8A59F60}" name="Table55456791564708453758187119187195199231243245251253" displayName="Table55456791564708453758187119187195199231243245251253" ref="A1:H8" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="252" xr:uid="{A3F3BDCF-3D76-6241-A6A1-52A1D8A59F60}" name="Table55456791564708453758187119187195199231243245251253" displayName="Table55456791564708453758187119187195199231243245251253" ref="A1:H7" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{CA253BF9-4BBE-0B4D-8AEC-C96FCBCF2C36}" name="System" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{5D81D593-FD1A-D24F-8055-3243800A902D}" name="This Week" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{2DBD6DE5-8B8F-2044-8F8B-2842BC656573}" name="Last Week" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{87C31F67-81EC-C740-AEF4-CBC63F030B1C}" name="Percentage change" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{CA253BF9-4BBE-0B4D-8AEC-C96FCBCF2C36}" name="System" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{5D81D593-FD1A-D24F-8055-3243800A902D}" name="This Week" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{2DBD6DE5-8B8F-2044-8F8B-2842BC656573}" name="Last Week" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{87C31F67-81EC-C740-AEF4-CBC63F030B1C}" name="Percentage change" dataDxfId="17">
       <calculatedColumnFormula>(Table55456791564708453758187119187195199231243245251253[[#This Row],[This Week]]-Table55456791564708453758187119187195199231243245251253[[#This Row],[Last Week]])/Table55456791564708453758187119187195199231243245251253[[#This Row],[Last Week]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{824FF1AF-3094-0D4C-8521-8CE4524D7792}" name="Last Year" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{3C3B0AF0-2165-D746-92DA-2DE3802376E0}" name="Year to date" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{BA5796BF-39EB-8847-BD76-40490674E792}" name="Year to date 2019" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{1B8A4BE3-6E23-9244-87C4-FDE5FEF5E9BB}" name="Lifetime" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{824FF1AF-3094-0D4C-8521-8CE4524D7792}" name="Last Year" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{3C3B0AF0-2165-D746-92DA-2DE3802376E0}" name="Year to date" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{BA5796BF-39EB-8847-BD76-40490674E792}" name="Year to date 2019" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{1B8A4BE3-6E23-9244-87C4-FDE5FEF5E9BB}" name="Lifetime" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table106.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="253" xr:uid="{06F5C916-7331-DB41-8A31-54F63E1F321A}" name="Table5155578101665718558768288120188196200232244246252254" displayName="Table5155578101665718558768288120188196200232244246252254" ref="A10:H22" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:H22">
-    <sortCondition descending="1" ref="B15:B22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="253" xr:uid="{06F5C916-7331-DB41-8A31-54F63E1F321A}" name="Table5155578101665718558768288120188196200232244246252254" displayName="Table5155578101665718558768288120188196200232244246252254" ref="A9:H18" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:H18">
+    <sortCondition descending="1" ref="B9:B18"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7893300F-EAEF-C947-B6ED-5627B07D9592}" name="System" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{3517AB45-EC53-0E4E-89D2-BE77D2D665E2}" name="This Week" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{CBAF0D28-A67B-A242-A7CB-EF2468CBBE9F}" name="Last Week" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{A3062E90-71B2-4542-96B4-F07924A2A344}" name="Percentage change" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{7893300F-EAEF-C947-B6ED-5627B07D9592}" name="System" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{3517AB45-EC53-0E4E-89D2-BE77D2D665E2}" name="This Week" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CBAF0D28-A67B-A242-A7CB-EF2468CBBE9F}" name="Last Week" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{A3062E90-71B2-4542-96B4-F07924A2A344}" name="Percentage change" dataDxfId="7">
       <calculatedColumnFormula>(Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7E290FB4-6A48-DE4C-AD19-5CC70C333FBB}" name="Last Year" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{F8B5A0A6-E129-FB4F-ABD6-7E447B7C598D}" name="Year to date" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{31994A5C-90F0-3744-BC25-917F2DBA7087}" name="Year to date 2019" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{FD77BCB3-ADDC-8942-AB49-77D4181A9A93}" name="Lifetime" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{7E290FB4-6A48-DE4C-AD19-5CC70C333FBB}" name="Last Year" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{F8B5A0A6-E129-FB4F-ABD6-7E447B7C598D}" name="Year to date" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{31994A5C-90F0-3744-BC25-917F2DBA7087}" name="Year to date 2019" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{FD77BCB3-ADDC-8942-AB49-77D4181A9A93}" name="Lifetime" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -44771,7 +44770,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="60" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="1">
@@ -47350,16 +47349,16 @@
         <f>(Table5155578101665718558768288144[[#This Row],[This Week]]-Table5155578101665718558768288144[[#This Row],[Last Week]])/Table5155578101665718558768288144[[#This Row],[Last Week]]</f>
         <v>0.2978723404255319</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="62">
         <v>273</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="62">
         <v>2385</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="62">
         <v>27145</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="63">
         <v>5888300</v>
       </c>
     </row>
@@ -47367,26 +47366,26 @@
       <c r="A15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="61">
         <v>29</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="61">
         <v>25</v>
       </c>
       <c r="D15" s="43">
         <f>(Table5155578101665718558768288144[[#This Row],[This Week]]-Table5155578101665718558768288144[[#This Row],[Last Week]])/Table5155578101665718558768288144[[#This Row],[Last Week]]</f>
         <v>0.16</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="62">
         <v>30</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="62">
         <v>2061</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="62">
         <v>2900</v>
       </c>
-      <c r="H15" s="64">
+      <c r="H15" s="63">
         <v>20703</v>
       </c>
     </row>
@@ -54195,28 +54194,28 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="66">
         <v>118085</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="67">
+      <c r="F2" s="66">
         <v>118085</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="66">
         <f>H11+H15</f>
         <v>118085</v>
       </c>
@@ -54250,28 +54249,28 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="66">
         <v>20534</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="66">
         <v>20534</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="66">
         <f>H14+H16</f>
         <v>20534</v>
       </c>
@@ -54428,28 +54427,28 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="67">
+      <c r="B11" s="66">
         <v>103901</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="66">
         <v>103901</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="66">
         <v>103901</v>
       </c>
     </row>
@@ -54508,80 +54507,80 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="67">
+      <c r="B14" s="66">
         <v>16247</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="67">
+      <c r="F14" s="66">
         <v>16247</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="G14" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="67">
+      <c r="H14" s="66">
         <v>16247</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="67">
+      <c r="B15" s="66">
         <v>14184</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="66">
         <v>14184</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="67">
+      <c r="H15" s="66">
         <v>14184</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="67">
+      <c r="B16" s="66">
         <v>4287</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="66">
         <v>4287</v>
       </c>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="67">
+      <c r="H16" s="66">
         <v>4287</v>
       </c>
     </row>
@@ -55146,7 +55145,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="72" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="1">
@@ -55227,7 +55226,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="1">
@@ -55787,7 +55786,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="72" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="1">
@@ -55868,7 +55867,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="1">
@@ -56428,7 +56427,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="72" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="1">
@@ -56536,7 +56535,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="1">
@@ -57555,7 +57554,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="72" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="1">
@@ -57663,7 +57662,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="1">
@@ -57839,7 +57838,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A28"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58196,7 +58195,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -58304,7 +58303,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="1">
@@ -58477,10 +58476,10 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B11889A-8DB3-2043-880D-BE06EDA6AACB}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58524,260 +58523,386 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="11" t="e">
+      <c r="B2" s="6">
+        <v>278173</v>
+      </c>
+      <c r="C2" s="1">
+        <v>263304</v>
+      </c>
+      <c r="D2" s="11">
         <f>(Table55456791564708453758187119187195199231243245251[[#This Row],[This Week]]-Table55456791564708453758187119187195199231243245251[[#This Row],[Last Week]])/Table55456791564708453758187119187195199231243245251[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+        <v>5.6470847385531556E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>234268</v>
+      </c>
+      <c r="F2" s="6">
+        <v>5956943</v>
+      </c>
+      <c r="G2" s="6">
+        <v>4493885</v>
+      </c>
+      <c r="H2" s="6">
+        <v>17340374</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="43" t="e">
+      <c r="B3" s="1">
+        <v>13188</v>
+      </c>
+      <c r="C3" s="1">
+        <v>17578</v>
+      </c>
+      <c r="D3" s="43">
         <f>(Table55456791564708453758187119187195199231243245251[[#This Row],[This Week]]-Table55456791564708453758187119187195199231243245251[[#This Row],[Last Week]])/Table55456791564708453758187119187195199231243245251[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
+        <v>-0.2497439981795426</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>255150</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>255150</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="43" t="e">
+      <c r="B4" s="6">
+        <v>12718</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10343</v>
+      </c>
+      <c r="D4" s="43">
         <f>(Table55456791564708453758187119187195199231243245251[[#This Row],[This Week]]-Table55456791564708453758187119187195199231243245251[[#This Row],[Last Week]])/Table55456791564708453758187119187195199231243245251[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+        <v>0.22962390022237261</v>
+      </c>
+      <c r="E4" s="1">
+        <v>81349</v>
+      </c>
+      <c r="F4" s="6">
+        <v>542647</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1196153</v>
+      </c>
+      <c r="H4" s="6">
+        <v>9290890</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="43" t="e">
+      <c r="B5" s="1">
+        <v>205</v>
+      </c>
+      <c r="C5" s="1">
+        <v>375</v>
+      </c>
+      <c r="D5" s="43">
         <f>(Table55456791564708453758187119187195199231243245251[[#This Row],[This Week]]-Table55456791564708453758187119187195199231243245251[[#This Row],[Last Week]])/Table55456791564708453758187119187195199231243245251[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+        <v>-0.45333333333333331</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3045</v>
+      </c>
+      <c r="F5" s="6">
+        <v>31424</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>31424</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="43" t="e">
+      <c r="B6" s="1">
+        <v>658</v>
+      </c>
+      <c r="C6" s="1">
+        <v>583</v>
+      </c>
+      <c r="D6" s="43">
         <f>(Table55456791564708453758187119187195199231243245251[[#This Row],[This Week]]-Table55456791564708453758187119187195199231243245251[[#This Row],[Last Week]])/Table55456791564708453758187119187195199231243245251[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
+        <v>0.12864493996569468</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="1">
+        <v>62761</v>
+      </c>
+      <c r="G6" s="1">
+        <v>191183</v>
+      </c>
+      <c r="H6" s="1">
+        <v>24558908</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="43" t="e">
+      <c r="A7" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="32">
+        <f>SUM(B2:B6)</f>
+        <v>304942</v>
+      </c>
+      <c r="C7" s="32">
+        <f>SUM(C2:C6)</f>
+        <v>292183</v>
+      </c>
+      <c r="D7" s="46">
         <f>(Table55456791564708453758187119187195199231243245251[[#This Row],[This Week]]-Table55456791564708453758187119187195199231243245251[[#This Row],[Last Week]])/Table55456791564708453758187119187195199231243245251[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+        <v>4.3667838306814567E-2</v>
+      </c>
+      <c r="E7" s="32">
+        <f>SUM(E2:E6)+344</f>
+        <v>319006</v>
+      </c>
+      <c r="F7" s="32">
+        <f>SUM(F2:F6)</f>
+        <v>6848925</v>
+      </c>
+      <c r="G7" s="32">
+        <f>SUM(G2:G6)</f>
+        <v>5881221</v>
+      </c>
+      <c r="H7" s="32">
+        <f>SUM(H2:H6)</f>
+        <v>51476746</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="32">
-        <f>SUM(B2:B7)</f>
+      <c r="A8" s="17"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="32">
-        <f>SUM(C2:C7)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="46" t="e">
-        <f>(Table55456791564708453758187119187195199231243245251[[#This Row],[This Week]]-Table55456791564708453758187119187195199231243245251[[#This Row],[Last Week]])/Table55456791564708453758187119187195199231243245251[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="32">
-        <f>SUM(E2:E7)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="32">
-        <f>SUM(F2:F7)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="32">
-        <f>SUM(G2:G7)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="32">
-        <f>SUM(H2:H7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>9</v>
+      <c r="A10" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="62">
+        <v>222366</v>
+      </c>
+      <c r="C10" s="58">
+        <v>211725</v>
+      </c>
+      <c r="D10" s="43">
+        <f>(Table5155578101665718558768288120188196200232244246252[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]]</f>
+        <v>5.0258590152320225E-2</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62">
+        <v>3930234</v>
+      </c>
+      <c r="G10" s="62">
+        <v>3448502</v>
+      </c>
+      <c r="H10" s="62">
+        <v>14268282</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="62">
+        <v>55807</v>
+      </c>
+      <c r="C11" s="58">
+        <v>51579</v>
+      </c>
+      <c r="D11" s="43">
+        <f>(Table5155578101665718558768288120188196200232244246252[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]]</f>
+        <v>8.1971344927199055E-2</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62">
+        <v>2026709</v>
+      </c>
+      <c r="G11" s="62">
+        <v>1045383</v>
+      </c>
+      <c r="H11" s="62">
+        <v>3072092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="43" t="e">
+      <c r="B12" s="58">
+        <v>10523</v>
+      </c>
+      <c r="C12" s="58">
+        <v>15122</v>
+      </c>
+      <c r="D12" s="43">
         <f>(Table5155578101665718558768288120188196200232244246252[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="56"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="42" t="s">
+        <v>-0.30412643830181191</v>
+      </c>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58">
+        <v>206622</v>
+      </c>
+      <c r="G12" s="58">
+        <v>206622</v>
+      </c>
+      <c r="H12" s="58">
+        <v>206622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="43" t="e">
+      <c r="B13" s="58">
+        <v>2665</v>
+      </c>
+      <c r="C13" s="58">
+        <v>2456</v>
+      </c>
+      <c r="D13" s="43">
         <f>(Table5155578101665718558768288120188196200232244246252[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="56"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+        <v>8.5097719869706837E-2</v>
+      </c>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58">
+        <v>48528</v>
+      </c>
+      <c r="G13" s="58">
+        <v>48528</v>
+      </c>
+      <c r="H13" s="58">
+        <v>48528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1">
+        <v>658</v>
+      </c>
+      <c r="C14" s="58">
+        <v>556</v>
+      </c>
+      <c r="D14" s="43">
+        <f>(Table5155578101665718558768288120188196200232244246252[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]]</f>
+        <v>0.18345323741007194</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <f>59093+658</f>
+        <v>59751</v>
+      </c>
+      <c r="G14" s="1">
+        <v>157127</v>
+      </c>
+      <c r="H14" s="1">
+        <f>1163339+658</f>
+        <v>1163997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="43" t="e">
+      <c r="B15" s="38">
+        <v>177</v>
+      </c>
+      <c r="C15" s="58">
+        <v>268</v>
+      </c>
+      <c r="D15" s="43">
         <f>(Table5155578101665718558768288120188196200232244246252[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="56"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
+        <v>-0.33955223880597013</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38">
+        <v>24876</v>
+      </c>
+      <c r="G15" s="38">
+        <v>24876</v>
+      </c>
+      <c r="H15" s="38">
+        <v>24876</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="43" t="e">
+      <c r="B16" s="38">
+        <v>28</v>
+      </c>
+      <c r="C16" s="58">
+        <v>107</v>
+      </c>
+      <c r="D16" s="43">
         <f>(Table5155578101665718558768288120188196200232244246252[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="56"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="43" t="e">
+        <v>-0.73831775700934577</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38">
+        <v>6548</v>
+      </c>
+      <c r="G16" s="38">
+        <v>6548</v>
+      </c>
+      <c r="H16" s="38">
+        <v>6548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="58">
+        <v>52</v>
+      </c>
+      <c r="D17" s="43">
         <f>(Table5155578101665718558768288120188196200232244246252[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="43" t="e">
-        <f>(Table5155578101665718558768288120188196200232244246252[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="43" t="e">
-        <f>(Table5155578101665718558768288120188196200232244246252[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -58785,79 +58910,21 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="59" t="s">
-        <v>20</v>
+      <c r="A18" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="43" t="e">
+      <c r="C18" s="58">
+        <v>10291</v>
+      </c>
+      <c r="D18" s="43">
         <f>(Table5155578101665718558768288120188196200232244246252[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="43" t="e">
-        <f>(Table5155578101665718558768288120188196200232244246252[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="43" t="e">
-        <f>(Table5155578101665718558768288120188196200232244246252[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="43" t="e">
-        <f>(Table5155578101665718558768288120188196200232244246252[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="43" t="e">
-        <f>(Table5155578101665718558768288120188196200232244246252[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58870,10 +58937,10 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DF997A-68E4-314C-97FB-F034F742D791}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58917,340 +58984,410 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="11" t="e">
+      <c r="B2" s="6">
+        <v>312121</v>
+      </c>
+      <c r="C2" s="6">
+        <v>278173</v>
+      </c>
+      <c r="D2" s="11">
         <f>(Table55456791564708453758187119187195199231243245251253[[#This Row],[This Week]]-Table55456791564708453758187119187195199231243245251253[[#This Row],[Last Week]])/Table55456791564708453758187119187195199231243245251253[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+        <v>0.12203916267933984</v>
+      </c>
+      <c r="E2" s="6">
+        <v>284827</v>
+      </c>
+      <c r="F2" s="6">
+        <f>Table55456791564708453758187119187195199231243245251[[#This Row],[Year to date]]+Table55456791564708453758187119187195199231243245251253[[#This Row],[This Week]]</f>
+        <v>6269064</v>
+      </c>
+      <c r="G2" s="6">
+        <v>4493885</v>
+      </c>
+      <c r="H2" s="12">
+        <v>17652495</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="43" t="e">
+      <c r="B3" s="1">
+        <v>10632</v>
+      </c>
+      <c r="C3" s="1">
+        <v>13188</v>
+      </c>
+      <c r="D3" s="43">
         <f>(Table55456791564708453758187119187195199231243245251253[[#This Row],[This Week]]-Table55456791564708453758187119187195199231243245251253[[#This Row],[Last Week]])/Table55456791564708453758187119187195199231243245251253[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+        <v>-0.19381255686988172</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
+        <f>Table55456791564708453758187119187195199231243245251[[#This Row],[Year to date]]+Table55456791564708453758187119187195199231243245251253[[#This Row],[This Week]]</f>
+        <v>265782</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="12">
+        <v>9308766</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="43" t="e">
+      <c r="B4" s="6">
+        <v>17876</v>
+      </c>
+      <c r="C4" s="6">
+        <v>12718</v>
+      </c>
+      <c r="D4" s="43">
         <f>(Table55456791564708453758187119187195199231243245251253[[#This Row],[This Week]]-Table55456791564708453758187119187195199231243245251253[[#This Row],[Last Week]])/Table55456791564708453758187119187195199231243245251253[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+        <v>0.405566913036641</v>
+      </c>
+      <c r="E4" s="6">
+        <v>58244</v>
+      </c>
+      <c r="F4" s="6">
+        <f>Table55456791564708453758187119187195199231243245251[[#This Row],[Year to date]]+Table55456791564708453758187119187195199231243245251253[[#This Row],[This Week]]</f>
+        <v>560523</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1196153</v>
+      </c>
+      <c r="H4" s="12">
+        <v>265782</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="43" t="e">
+      <c r="B5" s="1">
+        <v>134</v>
+      </c>
+      <c r="C5" s="1">
+        <v>205</v>
+      </c>
+      <c r="D5" s="43">
         <f>(Table55456791564708453758187119187195199231243245251253[[#This Row],[This Week]]-Table55456791564708453758187119187195199231243245251253[[#This Row],[Last Week]])/Table55456791564708453758187119187195199231243245251253[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+        <v>-0.34634146341463412</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <f>Table55456791564708453758187119187195199231243245251[[#This Row],[Year to date]]+Table55456791564708453758187119187195199231243245251253[[#This Row],[This Week]]</f>
+        <v>31558</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="12">
+        <v>24559622</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="43" t="e">
+      <c r="B6" s="1">
+        <v>714</v>
+      </c>
+      <c r="C6" s="1">
+        <v>658</v>
+      </c>
+      <c r="D6" s="43">
         <f>(Table55456791564708453758187119187195199231243245251253[[#This Row],[This Week]]-Table55456791564708453758187119187195199231243245251253[[#This Row],[Last Week]])/Table55456791564708453758187119187195199231243245251253[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+        <v>8.5106382978723402E-2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4030</v>
+      </c>
+      <c r="F6" s="6">
+        <f>Table55456791564708453758187119187195199231243245251[[#This Row],[Year to date]]+Table55456791564708453758187119187195199231243245251253[[#This Row],[This Week]]</f>
+        <v>63475</v>
+      </c>
+      <c r="G6" s="1">
+        <v>191183</v>
+      </c>
+      <c r="H6" s="12">
+        <v>31558</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="43" t="e">
+      <c r="A7" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="32">
+        <f>SUM(B2:B6)</f>
+        <v>341477</v>
+      </c>
+      <c r="C7" s="32">
+        <f>SUM(C2:C6)</f>
+        <v>304942</v>
+      </c>
+      <c r="D7" s="46">
         <f>(Table55456791564708453758187119187195199231243245251253[[#This Row],[This Week]]-Table55456791564708453758187119187195199231243245251253[[#This Row],[Last Week]])/Table55456791564708453758187119187195199231243245251253[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+        <v>0.11980966872388847</v>
+      </c>
+      <c r="E7" s="32">
+        <f>SUM(E2:E6)+112</f>
+        <v>347213</v>
+      </c>
+      <c r="F7" s="32">
+        <f>SUM(F2:F6)</f>
+        <v>7190402</v>
+      </c>
+      <c r="G7" s="32">
+        <f>SUM(G2:G6)</f>
+        <v>5881221</v>
+      </c>
+      <c r="H7" s="32">
+        <f>SUM(H2:H6)</f>
+        <v>51818223</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="32">
-        <f>SUM(B2:B7)</f>
+      <c r="A8" s="17"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="32">
-        <f>SUM(C2:C7)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="46" t="e">
-        <f>(Table55456791564708453758187119187195199231243245251253[[#This Row],[This Week]]-Table55456791564708453758187119187195199231243245251253[[#This Row],[Last Week]])/Table55456791564708453758187119187195199231243245251253[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="32">
-        <f>SUM(E2:E7)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="32">
-        <f>SUM(F2:F7)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="32">
-        <f>SUM(G2:G7)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="32">
-        <f>SUM(H2:H7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>9</v>
+      <c r="A10" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="62">
+        <v>244685</v>
+      </c>
+      <c r="C10" s="62">
+        <v>222366</v>
+      </c>
+      <c r="D10" s="43">
+        <f>(Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]]</f>
+        <v>0.10037056024751985</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="19">
+        <f>SUM(3930234+B10)</f>
+        <v>4174919</v>
+      </c>
+      <c r="G10" s="19">
+        <v>3448502</v>
+      </c>
+      <c r="H10" s="19">
+        <f>SUM(14268282+Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]])</f>
+        <v>14512967</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="62">
+        <v>67436</v>
+      </c>
+      <c r="C11" s="62">
+        <v>55807</v>
+      </c>
+      <c r="D11" s="43">
+        <f>(Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]]</f>
+        <v>0.20837887720178472</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="F11" s="23">
+        <f>SUM(2026709+B11)</f>
+        <v>2094145</v>
+      </c>
+      <c r="G11" s="23">
+        <v>1045383</v>
+      </c>
+      <c r="H11" s="23">
+        <f>SUM(3072092+Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]])</f>
+        <v>3139528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="43" t="e">
+      <c r="B12" s="58">
+        <v>7606</v>
+      </c>
+      <c r="C12" s="58">
+        <v>10523</v>
+      </c>
+      <c r="D12" s="43">
         <f>(Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="56"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="42" t="s">
+        <v>-0.27720231873040008</v>
+      </c>
+      <c r="E12" s="58"/>
+      <c r="F12" s="19">
+        <f>SUM(206622+B12)</f>
+        <v>214228</v>
+      </c>
+      <c r="G12" s="19">
+        <v>206622</v>
+      </c>
+      <c r="H12" s="19">
+        <f>SUM(206622+Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]])</f>
+        <v>214228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="43" t="e">
+      <c r="B13" s="58">
+        <v>3026</v>
+      </c>
+      <c r="C13" s="58">
+        <v>2665</v>
+      </c>
+      <c r="D13" s="43">
         <f>(Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="56"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+        <v>0.13545966228893058</v>
+      </c>
+      <c r="E13" s="58"/>
+      <c r="F13" s="23">
+        <f>SUM(48528+B13)</f>
+        <v>51554</v>
+      </c>
+      <c r="G13" s="23">
+        <v>48528</v>
+      </c>
+      <c r="H13" s="23">
+        <f>SUM(48528+Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]])</f>
+        <v>51554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1">
+        <v>714</v>
+      </c>
+      <c r="C14" s="1">
+        <v>658</v>
+      </c>
+      <c r="D14" s="43">
+        <f>(Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]]</f>
+        <v>8.5106382978723402E-2</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <v>60465</v>
+      </c>
+      <c r="G14" s="1">
+        <v>157127</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1164711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="43" t="e">
+      <c r="B15" s="38">
+        <v>98</v>
+      </c>
+      <c r="C15" s="38">
+        <v>177</v>
+      </c>
+      <c r="D15" s="43">
         <f>(Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="56"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
+        <v>-0.4463276836158192</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="23">
+        <v>24876</v>
+      </c>
+      <c r="G15" s="23">
+        <v>24876</v>
+      </c>
+      <c r="H15" s="25">
+        <f>SUM(24876+Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]])</f>
+        <v>24974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="43" t="e">
+      <c r="B16" s="38">
+        <v>38</v>
+      </c>
+      <c r="C16" s="38">
+        <v>28</v>
+      </c>
+      <c r="D16" s="43">
         <f>(Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="56"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="43" t="e">
-        <f>(Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="43" t="e">
-        <f>(Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="19">
+        <v>6548</v>
+      </c>
+      <c r="G16" s="19">
+        <v>6548</v>
+      </c>
+      <c r="H16" s="21">
+        <v>6586</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
-        <v>19</v>
+      <c r="A17" s="44" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="43" t="e">
-        <f>(Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D17" s="43"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="59" t="s">
-        <v>20</v>
+      <c r="A18" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="43" t="e">
-        <f>(Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D18" s="43"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="43" t="e">
-        <f>(Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="43" t="e">
-        <f>(Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="43" t="e">
-        <f>(Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="43" t="e">
-        <f>(Table5155578101665718558768288120188196200232244246252254[[#This Row],[This Week]]-Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]])/Table5155578101665718558768288120188196200232244246252254[[#This Row],[Last Week]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
